--- a/module2/patient_3_anamnesis_data.xlsx
+++ b/module2/patient_3_anamnesis_data.xlsx
@@ -491,20 +491,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43 yaşında</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Üniversite mezunu</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>parakendecilik sektöründe çalışıyor</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>parakendecilik</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>50 kg</t>
@@ -540,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25.2" customWidth="1" min="1" max="1"/>
+    <col width="37.2" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,7 +569,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hipotiroid</t>
+          <t>Kronik bel ağrısı, Hipotiroid</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="49.2" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -587,7 +603,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ağrı Şiddeti</t>
+          <t>Ağrıların Kaçı Şiddetli</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -619,29 +635,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ayda ortalama 15-20 ağrılı gün geçiriyor</t>
+          <t>15-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Şiddetli olan ağrıların şiddeti 9</t>
+          <t>belirtilmemiş</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ağrılar ilaçlı ortalama 3-4 saat sürüyor</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>3-4 saat</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ağrılar zonklayıcı bir karakterde</t>
+          <t>zonklayıcı</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12 yıldır baş ağrısı şikayeti bulunuyor</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -664,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="180" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -747,45 +771,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ağrı esnasında fotofobi seviyesi 5 (aşırı hassasiyet)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ağrı dışında fotofobi seviyesi 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ağrı esnasında fonofobi seviyesi 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ağrı dışında fonofobi seviyesi 1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ağrı esnasında osmofobi 5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ağrı dışında osmofobi 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bulantı seviyesi 3 (orta)</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Kusma 3 (orta)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>relpax</t>
@@ -796,10 +824,14 @@
           <t>Cataflam</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Amitriptilin</t>
+          <t>SSRI/SNRI, Amitriptilin</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -809,7 +841,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>açlık</t>
+          <t>Parlak ışıklar, yanıp sönen ışıklar, göz yorgunluğu, uykusuzluk, hava değişimi, ortamın ışığı, ortamın havası, stres, gürültü, keskin kokular, açlık</t>
         </is>
       </c>
     </row>
@@ -868,7 +900,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31.2" customWidth="1" min="1" max="1"/>
+    <col width="28.8" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -896,12 +928,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aura süresi 20 dakika sürmekte</t>
+          <t>20 dakika</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aura aylık atak sayısı 1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -924,7 +956,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.4" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,33 +999,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MIDAS ölçeği 50</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HIT ölçeği 66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Beck depresyon ölçek değeri 13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beck anksiyete ölçek değeri 19</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Allodini ölçek değeri 6</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>UPSIS-12 ölçek değeri 222</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1052,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21.6" customWidth="1" min="1" max="1"/>
+    <col width="16.8" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1029,7 +1065,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Göz kuruluğu var</t>
+          <t>Göz kuruluğu</t>
         </is>
       </c>
     </row>
